--- a/Code/Results/Cases/Case_4_182/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_182/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9952880136768181</v>
+        <v>1.0478857529451</v>
       </c>
       <c r="D2">
-        <v>1.013002985158529</v>
+        <v>1.046512829503352</v>
       </c>
       <c r="E2">
-        <v>1.010398288276117</v>
+        <v>1.061276380398277</v>
       </c>
       <c r="F2">
-        <v>1.012123409007135</v>
+        <v>1.068238907166386</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.039670497182001</v>
+        <v>1.035728032744373</v>
       </c>
       <c r="J2">
-        <v>1.017610578681879</v>
+        <v>1.052932439659501</v>
       </c>
       <c r="K2">
-        <v>1.024284091958183</v>
+        <v>1.049278056197399</v>
       </c>
       <c r="L2">
-        <v>1.021714634560495</v>
+        <v>1.064000880456622</v>
       </c>
       <c r="M2">
-        <v>1.02341639026753</v>
+        <v>1.070944623112024</v>
       </c>
       <c r="N2">
-        <v>1.008484181085657</v>
+        <v>1.021287279631239</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.00327183687291</v>
+        <v>1.049448347775954</v>
       </c>
       <c r="D3">
-        <v>1.01897035352616</v>
+        <v>1.04768170327464</v>
       </c>
       <c r="E3">
-        <v>1.018209525374365</v>
+        <v>1.062868270282589</v>
       </c>
       <c r="F3">
-        <v>1.020566846582106</v>
+        <v>1.069977612019127</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.04174040672556</v>
+        <v>1.036039315098271</v>
       </c>
       <c r="J3">
-        <v>1.023673703970428</v>
+        <v>1.054140678585356</v>
       </c>
       <c r="K3">
-        <v>1.029366125336308</v>
+        <v>1.050257659721965</v>
       </c>
       <c r="L3">
-        <v>1.028614595212765</v>
+        <v>1.065405401542126</v>
       </c>
       <c r="M3">
-        <v>1.030943163761844</v>
+        <v>1.072496975759474</v>
       </c>
       <c r="N3">
-        <v>1.010635987426894</v>
+        <v>1.021705038629623</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.008270590600585</v>
+        <v>1.050457510434784</v>
       </c>
       <c r="D4">
-        <v>1.022708228087887</v>
+        <v>1.048436088384153</v>
       </c>
       <c r="E4">
-        <v>1.023106472789801</v>
+        <v>1.063896767006803</v>
       </c>
       <c r="F4">
-        <v>1.025861729743169</v>
+        <v>1.071101303633836</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.043022644254398</v>
+        <v>1.036238550932537</v>
       </c>
       <c r="J4">
-        <v>1.027465074099566</v>
+        <v>1.054920186214632</v>
       </c>
       <c r="K4">
-        <v>1.03254009736799</v>
+        <v>1.050889005022878</v>
       </c>
       <c r="L4">
-        <v>1.032933797642499</v>
+        <v>1.066312172081463</v>
       </c>
       <c r="M4">
-        <v>1.035657733112363</v>
+        <v>1.073499625743957</v>
       </c>
       <c r="N4">
-        <v>1.011979958997272</v>
+        <v>1.02197417359593</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.010334458842058</v>
+        <v>1.050881307732991</v>
       </c>
       <c r="D5">
-        <v>1.024251763356102</v>
+        <v>1.048752770408511</v>
       </c>
       <c r="E5">
-        <v>1.025129749137326</v>
+        <v>1.064328782511696</v>
       </c>
       <c r="F5">
-        <v>1.028049838384806</v>
+        <v>1.071573386974676</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.043548676186484</v>
+        <v>1.036321788929191</v>
       </c>
       <c r="J5">
-        <v>1.029029220089111</v>
+        <v>1.055247347310665</v>
       </c>
       <c r="K5">
-        <v>1.033848553342317</v>
+        <v>1.051153824450363</v>
       </c>
       <c r="L5">
-        <v>1.034716812031001</v>
+        <v>1.066692896724109</v>
       </c>
       <c r="M5">
-        <v>1.037604696827241</v>
+        <v>1.073920712272654</v>
       </c>
       <c r="N5">
-        <v>1.012534010125963</v>
+        <v>1.022087037198297</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.010678852998806</v>
+        <v>1.05095243878829</v>
       </c>
       <c r="D6">
-        <v>1.024509341527825</v>
+        <v>1.04880591583792</v>
       </c>
       <c r="E6">
-        <v>1.025467452978698</v>
+        <v>1.064401298716475</v>
       </c>
       <c r="F6">
-        <v>1.028415079692797</v>
+        <v>1.071652633584421</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.043636253702195</v>
+        <v>1.036335734483593</v>
       </c>
       <c r="J6">
-        <v>1.029290152726827</v>
+        <v>1.055302247423145</v>
       </c>
       <c r="K6">
-        <v>1.034066772636344</v>
+        <v>1.051198253896993</v>
       </c>
       <c r="L6">
-        <v>1.035014322303321</v>
+        <v>1.066756794072681</v>
       </c>
       <c r="M6">
-        <v>1.037929607254036</v>
+        <v>1.073991389761701</v>
       </c>
       <c r="N6">
-        <v>1.012626412627136</v>
+        <v>1.022105971102989</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.008298312815692</v>
+        <v>1.050463175009385</v>
       </c>
       <c r="D7">
-        <v>1.022728960275439</v>
+        <v>1.048440321710264</v>
       </c>
       <c r="E7">
-        <v>1.023133644132875</v>
+        <v>1.063902541039658</v>
       </c>
       <c r="F7">
-        <v>1.025891112990423</v>
+        <v>1.071107612865567</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.043029723457213</v>
+        <v>1.036239665206131</v>
       </c>
       <c r="J7">
-        <v>1.027486088887351</v>
+        <v>1.05492455988504</v>
       </c>
       <c r="K7">
-        <v>1.032557680817248</v>
+        <v>1.050892545895882</v>
       </c>
       <c r="L7">
-        <v>1.032957748578537</v>
+        <v>1.066317261224738</v>
       </c>
       <c r="M7">
-        <v>1.035683883408261</v>
+        <v>1.073505253990783</v>
       </c>
       <c r="N7">
-        <v>1.011987404508631</v>
+        <v>1.021975682784956</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9980223760916769</v>
+        <v>1.048414247006311</v>
       </c>
       <c r="D8">
-        <v>1.01504629890714</v>
+        <v>1.046908264405991</v>
       </c>
       <c r="E8">
-        <v>1.013072182347331</v>
+        <v>1.061814696321726</v>
       </c>
       <c r="F8">
-        <v>1.015013396187337</v>
+        <v>1.06882679997886</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.040382277767194</v>
+        <v>1.035833685791641</v>
       </c>
       <c r="J8">
-        <v>1.019688100957165</v>
+        <v>1.053341251264892</v>
       </c>
       <c r="K8">
-        <v>1.026026243793895</v>
+        <v>1.049609643988774</v>
       </c>
       <c r="L8">
-        <v>1.024077946815357</v>
+        <v>1.064475974364328</v>
       </c>
       <c r="M8">
-        <v>1.025993770379716</v>
+        <v>1.071469631847487</v>
       </c>
       <c r="N8">
-        <v>1.009221812370799</v>
+        <v>1.021428709698782</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9785096796237527</v>
+        <v>1.044788464451212</v>
       </c>
       <c r="D9">
-        <v>1.000478686120744</v>
+        <v>1.044193326645336</v>
       </c>
       <c r="E9">
-        <v>0.9940209702543432</v>
+        <v>1.05812325109661</v>
       </c>
       <c r="F9">
-        <v>0.9944279810064549</v>
+        <v>1.064796773426671</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035246425869323</v>
+        <v>1.035101463986061</v>
       </c>
       <c r="J9">
-        <v>1.00484482715727</v>
+        <v>1.050533272539688</v>
       </c>
       <c r="K9">
-        <v>1.01356400174781</v>
+        <v>1.047329406364253</v>
       </c>
       <c r="L9">
-        <v>1.007211803663508</v>
+        <v>1.061215309621195</v>
       </c>
       <c r="M9">
-        <v>1.007612111890536</v>
+        <v>1.067868187924848</v>
       </c>
       <c r="N9">
-        <v>1.003946054507673</v>
+        <v>1.020455700480756</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9643575048939582</v>
+        <v>1.042360356176612</v>
       </c>
       <c r="D10">
-        <v>0.9899390836593928</v>
+        <v>1.042372703269392</v>
       </c>
       <c r="E10">
-        <v>0.9802456943648051</v>
+        <v>1.055653350187913</v>
       </c>
       <c r="F10">
-        <v>0.9795483837827256</v>
+        <v>1.062102064124562</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.031452910543381</v>
+        <v>1.034601853154197</v>
       </c>
       <c r="J10">
-        <v>0.9940602765065049</v>
+        <v>1.048648711762142</v>
       </c>
       <c r="K10">
-        <v>1.004492398536422</v>
+        <v>1.045795686381914</v>
       </c>
       <c r="L10">
-        <v>0.9949810201519473</v>
+        <v>1.059030168589279</v>
       </c>
       <c r="M10">
-        <v>0.9942969845260045</v>
+        <v>1.065456923984815</v>
       </c>
       <c r="N10">
-        <v>1.000107302862313</v>
+        <v>1.019800702391624</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9579043915714001</v>
+        <v>1.041306228285794</v>
       </c>
       <c r="D11">
-        <v>0.9851425078963437</v>
+        <v>1.041581732242625</v>
       </c>
       <c r="E11">
-        <v>0.9739758297337957</v>
+        <v>1.054581601051428</v>
       </c>
       <c r="F11">
-        <v>0.9727763344987895</v>
+        <v>1.060933172569801</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.029708305156032</v>
+        <v>1.03438276463294</v>
       </c>
       <c r="J11">
-        <v>0.989139666900512</v>
+        <v>1.047829585567103</v>
       </c>
       <c r="K11">
-        <v>1.000350161354921</v>
+        <v>1.045128265983046</v>
       </c>
       <c r="L11">
-        <v>0.9894057972934854</v>
+        <v>1.058081159320817</v>
       </c>
       <c r="M11">
-        <v>0.9882305824192649</v>
+        <v>1.064410240769522</v>
       </c>
       <c r="N11">
-        <v>0.9983550658132583</v>
+        <v>1.019515545156723</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9554531093986254</v>
+        <v>1.040914254294083</v>
       </c>
       <c r="D12">
-        <v>0.9833221759925689</v>
+        <v>1.041287527414982</v>
       </c>
       <c r="E12">
-        <v>0.9715960020199025</v>
+        <v>1.054183153592566</v>
       </c>
       <c r="F12">
-        <v>0.9702058881889996</v>
+        <v>1.060498671076113</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.029043511770852</v>
+        <v>1.03430096880316</v>
       </c>
       <c r="J12">
-        <v>0.9872702051043637</v>
+        <v>1.047524850653656</v>
       </c>
       <c r="K12">
-        <v>0.9987760271869123</v>
+        <v>1.044879851595461</v>
       </c>
       <c r="L12">
-        <v>0.9872883883507469</v>
+        <v>1.057728219298644</v>
       </c>
       <c r="M12">
-        <v>0.9859270573688941</v>
+        <v>1.064021055101405</v>
       </c>
       <c r="N12">
-        <v>0.9976892899641917</v>
+        <v>1.019409390773295</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9559814725392154</v>
+        <v>1.040998353427245</v>
       </c>
       <c r="D13">
-        <v>0.9837144587217322</v>
+        <v>1.041350653713437</v>
       </c>
       <c r="E13">
-        <v>0.9721088778751296</v>
+        <v>1.054268638047897</v>
       </c>
       <c r="F13">
-        <v>0.9707598457845603</v>
+        <v>1.060591887952515</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.029186896744301</v>
+        <v>1.034318533184827</v>
       </c>
       <c r="J13">
-        <v>0.9876731712023589</v>
+        <v>1.04759023897231</v>
       </c>
       <c r="K13">
-        <v>0.9991153512418612</v>
+        <v>1.044933160286627</v>
       </c>
       <c r="L13">
-        <v>0.9877447663629949</v>
+        <v>1.057803946022355</v>
       </c>
       <c r="M13">
-        <v>0.9864235314526358</v>
+        <v>1.064104555081315</v>
       </c>
       <c r="N13">
-        <v>0.9978328008769705</v>
+        <v>1.019432171901295</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9577029103833948</v>
+        <v>1.041273836312698</v>
       </c>
       <c r="D14">
-        <v>0.9849928509067588</v>
+        <v>1.041557421446714</v>
       </c>
       <c r="E14">
-        <v>0.9737801834755024</v>
+        <v>1.054548672511232</v>
       </c>
       <c r="F14">
-        <v>0.9725650180289513</v>
+        <v>1.060897263207703</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.029653704382478</v>
+        <v>1.034376011879384</v>
       </c>
       <c r="J14">
-        <v>0.988986013504297</v>
+        <v>1.047804405828052</v>
       </c>
       <c r="K14">
-        <v>1.000220788800563</v>
+        <v>1.045107742312454</v>
       </c>
       <c r="L14">
-        <v>0.9892317496863616</v>
+        <v>1.058051994139593</v>
       </c>
       <c r="M14">
-        <v>0.9880412279253604</v>
+        <v>1.064378078808039</v>
       </c>
       <c r="N14">
-        <v>0.9983003456919626</v>
+        <v>1.019506775199829</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9587561705532409</v>
+        <v>1.04144351386638</v>
       </c>
       <c r="D15">
-        <v>0.9857752664159949</v>
+        <v>1.041684764233813</v>
       </c>
       <c r="E15">
-        <v>0.9748030167845713</v>
+        <v>1.054721163976309</v>
       </c>
       <c r="F15">
-        <v>0.9736697740513195</v>
+        <v>1.061085371774817</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.029939050804902</v>
+        <v>1.034411371110143</v>
       </c>
       <c r="J15">
-        <v>0.9897892378298718</v>
+        <v>1.047936297875232</v>
       </c>
       <c r="K15">
-        <v>1.000897069310324</v>
+        <v>1.04521524095214</v>
       </c>
       <c r="L15">
-        <v>0.9901416154113438</v>
+        <v>1.05820476671062</v>
       </c>
       <c r="M15">
-        <v>0.9890311303522261</v>
+        <v>1.064546552323114</v>
       </c>
       <c r="N15">
-        <v>0.9985863935627658</v>
+        <v>1.019552709614972</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9647784796583192</v>
+        <v>1.042430256388605</v>
       </c>
       <c r="D16">
-        <v>0.9902522085617064</v>
+        <v>1.0424251413403</v>
       </c>
       <c r="E16">
-        <v>0.9806549605234489</v>
+        <v>1.055724429914935</v>
       </c>
       <c r="F16">
-        <v>0.9799904334471776</v>
+        <v>1.062179595006267</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.031566426955728</v>
+        <v>1.034616335074612</v>
       </c>
       <c r="J16">
-        <v>0.9943812253245117</v>
+        <v>1.048703008379214</v>
       </c>
       <c r="K16">
-        <v>1.004762518742149</v>
+        <v>1.045839910507996</v>
       </c>
       <c r="L16">
-        <v>0.9953447720799323</v>
+        <v>1.059093090695952</v>
       </c>
       <c r="M16">
-        <v>0.994692844106372</v>
+        <v>1.065526333329459</v>
       </c>
       <c r="N16">
-        <v>1.000221582274565</v>
+        <v>1.019819594653835</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9684654718041091</v>
+        <v>1.043048471516821</v>
       </c>
       <c r="D17">
-        <v>0.9929957017933685</v>
+        <v>1.042888850848439</v>
       </c>
       <c r="E17">
-        <v>0.9842407001050757</v>
+        <v>1.056353137296796</v>
       </c>
       <c r="F17">
-        <v>0.9838634450428707</v>
+        <v>1.062865410470792</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.032558977511222</v>
+        <v>1.034744164277509</v>
       </c>
       <c r="J17">
-        <v>0.9971918382231849</v>
+        <v>1.049183109344621</v>
       </c>
       <c r="K17">
-        <v>1.007127666511372</v>
+        <v>1.046230857880278</v>
       </c>
       <c r="L17">
-        <v>0.9985308068177521</v>
+        <v>1.059649547971674</v>
       </c>
       <c r="M17">
-        <v>0.9981604484851911</v>
+        <v>1.066140222353186</v>
       </c>
       <c r="N17">
-        <v>1.001222271657524</v>
+        <v>1.019986590436712</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.97058507246902</v>
+        <v>1.043408802303533</v>
       </c>
       <c r="D18">
-        <v>0.9945737440567559</v>
+        <v>1.043159071633731</v>
       </c>
       <c r="E18">
-        <v>0.986303147758255</v>
+        <v>1.056719633860997</v>
       </c>
       <c r="F18">
-        <v>0.9860911734828158</v>
+        <v>1.063265236700011</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.033128183621794</v>
+        <v>1.034818459389896</v>
       </c>
       <c r="J18">
-        <v>0.9988073236815006</v>
+        <v>1.049462845751445</v>
       </c>
       <c r="K18">
-        <v>1.008486803751964</v>
+        <v>1.046458572058975</v>
       </c>
       <c r="L18">
-        <v>1.000362570639102</v>
+        <v>1.059973847880102</v>
       </c>
       <c r="M18">
-        <v>1.000154389543275</v>
+        <v>1.066498044338205</v>
       </c>
       <c r="N18">
-        <v>1.001797374425421</v>
+        <v>1.020083847997485</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9713027025950772</v>
+        <v>1.043531621438328</v>
       </c>
       <c r="D19">
-        <v>0.9951081547352645</v>
+        <v>1.043251167243857</v>
       </c>
       <c r="E19">
-        <v>0.9870016030820962</v>
+        <v>1.056844563125483</v>
       </c>
       <c r="F19">
-        <v>0.9868456118132176</v>
+        <v>1.063401533861251</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.033320657939774</v>
+        <v>1.034843747156598</v>
       </c>
       <c r="J19">
-        <v>0.9993542219602398</v>
+        <v>1.0495581783121</v>
       </c>
       <c r="K19">
-        <v>1.008946865417428</v>
+        <v>1.046536162859714</v>
       </c>
       <c r="L19">
-        <v>1.000982771258153</v>
+        <v>1.060084379920368</v>
       </c>
       <c r="M19">
-        <v>1.000829551028107</v>
+        <v>1.06662001049219</v>
       </c>
       <c r="N19">
-        <v>1.001992052730685</v>
+        <v>1.02011698525944</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.968073131493475</v>
+        <v>1.042982170241552</v>
       </c>
       <c r="D20">
-        <v>0.9927036711010275</v>
+        <v>1.042839125446415</v>
       </c>
       <c r="E20">
-        <v>0.9838590235925072</v>
+        <v>1.056285705559042</v>
       </c>
       <c r="F20">
-        <v>0.9834511860122184</v>
+        <v>1.062791849569519</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.032453502595659</v>
+        <v>1.034730476896454</v>
       </c>
       <c r="J20">
-        <v>0.9968927851381917</v>
+        <v>1.049131629983755</v>
       </c>
       <c r="K20">
-        <v>1.006876042550618</v>
+        <v>1.046188945957436</v>
       </c>
       <c r="L20">
-        <v>0.9981917572437516</v>
+        <v>1.059589873605428</v>
       </c>
       <c r="M20">
-        <v>0.9977914047829476</v>
+        <v>1.066074383721267</v>
       </c>
       <c r="N20">
-        <v>1.001115804252027</v>
+        <v>1.019968688726767</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9571975372478265</v>
+        <v>1.041192725270659</v>
       </c>
       <c r="D21">
-        <v>0.9846174962274039</v>
+        <v>1.04149654469125</v>
       </c>
       <c r="E21">
-        <v>0.973289476168217</v>
+        <v>1.054466219155976</v>
       </c>
       <c r="F21">
-        <v>0.972035007335884</v>
+        <v>1.060807346830646</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.029516716827344</v>
+        <v>1.034359097359889</v>
       </c>
       <c r="J21">
-        <v>0.9886006017422436</v>
+        <v>1.047741352214456</v>
       </c>
       <c r="K21">
-        <v>0.9998962750882101</v>
+        <v>1.045056346251067</v>
       </c>
       <c r="L21">
-        <v>0.9887951947726271</v>
+        <v>1.057978962266346</v>
       </c>
       <c r="M21">
-        <v>0.98756628625777</v>
+        <v>1.064297544050517</v>
       </c>
       <c r="N21">
-        <v>0.9981630894365622</v>
+        <v>1.019484812880542</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9500420274643797</v>
+        <v>1.04006517120186</v>
       </c>
       <c r="D22">
-        <v>0.9793073945923537</v>
+        <v>1.040650075410497</v>
       </c>
       <c r="E22">
-        <v>0.9663462284203619</v>
+        <v>1.053320192761652</v>
       </c>
       <c r="F22">
-        <v>0.9645355160086131</v>
+        <v>1.059557735196877</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.02757233055762</v>
+        <v>1.034123184547982</v>
       </c>
       <c r="J22">
-        <v>0.9831430536275095</v>
+        <v>1.046864476636397</v>
       </c>
       <c r="K22">
-        <v>0.9953002316068912</v>
+        <v>1.044341311847021</v>
       </c>
       <c r="L22">
-        <v>0.9826152109306124</v>
+        <v>1.056963592009574</v>
       </c>
       <c r="M22">
-        <v>0.9808438617323377</v>
+        <v>1.063178048913907</v>
       </c>
       <c r="N22">
-        <v>0.9962194382368341</v>
+        <v>1.019179223838065</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9538674644513931</v>
+        <v>1.040663146118738</v>
       </c>
       <c r="D23">
-        <v>0.9821451898214569</v>
+        <v>1.041099028852247</v>
       </c>
       <c r="E23">
-        <v>0.9700571171579985</v>
+        <v>1.053927920633271</v>
       </c>
       <c r="F23">
-        <v>0.9685437302251172</v>
+        <v>1.060220360139152</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.02861291206341</v>
+        <v>1.034248475969442</v>
       </c>
       <c r="J23">
-        <v>0.9860608488191926</v>
+        <v>1.04732958906</v>
       </c>
       <c r="K23">
-        <v>0.9977576183556883</v>
+        <v>1.044720644804726</v>
       </c>
       <c r="L23">
-        <v>0.9859188438480704</v>
+        <v>1.05750210207275</v>
       </c>
       <c r="M23">
-        <v>0.9844372481900225</v>
+        <v>1.06377173886564</v>
       </c>
       <c r="N23">
-        <v>0.9972585902833597</v>
+        <v>1.019341352055138</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9682505084628891</v>
+        <v>1.043012129748623</v>
       </c>
       <c r="D24">
-        <v>0.9928356955052767</v>
+        <v>1.042861594997475</v>
       </c>
       <c r="E24">
-        <v>0.9840315761885777</v>
+        <v>1.056316175731893</v>
       </c>
       <c r="F24">
-        <v>0.9836375645428476</v>
+        <v>1.062825089187306</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.032501192137306</v>
+        <v>1.034736662455216</v>
       </c>
       <c r="J24">
-        <v>0.9970279879066984</v>
+        <v>1.049154892213031</v>
       </c>
       <c r="K24">
-        <v>1.006989803424167</v>
+        <v>1.046207885136492</v>
       </c>
       <c r="L24">
-        <v>0.9983450410051908</v>
+        <v>1.05961683872406</v>
       </c>
       <c r="M24">
-        <v>0.997958247927629</v>
+        <v>1.066104134134805</v>
       </c>
       <c r="N24">
-        <v>1.001163938709364</v>
+        <v>1.019976778197071</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9837395778643456</v>
+        <v>1.045727694598597</v>
       </c>
       <c r="D25">
-        <v>1.004379679887254</v>
+        <v>1.044897052816554</v>
       </c>
       <c r="E25">
-        <v>0.9991204354614366</v>
+        <v>1.059079108929531</v>
       </c>
       <c r="F25">
-        <v>0.9999370467806095</v>
+        <v>1.065839997054736</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.036634998898794</v>
+        <v>1.035292770604128</v>
       </c>
       <c r="J25">
-        <v>1.008826841096055</v>
+        <v>1.051261383186651</v>
       </c>
       <c r="K25">
-        <v>1.016910385303345</v>
+        <v>1.047921264442376</v>
       </c>
       <c r="L25">
-        <v>1.011732420898397</v>
+        <v>1.062060231938421</v>
       </c>
       <c r="M25">
-        <v>1.01253634009501</v>
+        <v>1.068801018312616</v>
       </c>
       <c r="N25">
-        <v>1.005362501616508</v>
+        <v>1.020708349876284</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_182/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_182/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.0478857529451</v>
+        <v>0.9952880136768179</v>
       </c>
       <c r="D2">
-        <v>1.046512829503352</v>
+        <v>1.013002985158529</v>
       </c>
       <c r="E2">
-        <v>1.061276380398277</v>
+        <v>1.010398288276117</v>
       </c>
       <c r="F2">
-        <v>1.068238907166386</v>
+        <v>1.012123409007135</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.035728032744373</v>
+        <v>1.039670497182002</v>
       </c>
       <c r="J2">
-        <v>1.052932439659501</v>
+        <v>1.017610578681879</v>
       </c>
       <c r="K2">
-        <v>1.049278056197399</v>
+        <v>1.024284091958183</v>
       </c>
       <c r="L2">
-        <v>1.064000880456622</v>
+        <v>1.021714634560494</v>
       </c>
       <c r="M2">
-        <v>1.070944623112024</v>
+        <v>1.02341639026753</v>
       </c>
       <c r="N2">
-        <v>1.021287279631239</v>
+        <v>1.008484181085657</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.049448347775954</v>
+        <v>1.003271836872909</v>
       </c>
       <c r="D3">
-        <v>1.04768170327464</v>
+        <v>1.01897035352616</v>
       </c>
       <c r="E3">
-        <v>1.062868270282589</v>
+        <v>1.018209525374365</v>
       </c>
       <c r="F3">
-        <v>1.069977612019127</v>
+        <v>1.020566846582105</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.036039315098271</v>
+        <v>1.04174040672556</v>
       </c>
       <c r="J3">
-        <v>1.054140678585356</v>
+        <v>1.023673703970428</v>
       </c>
       <c r="K3">
-        <v>1.050257659721965</v>
+        <v>1.029366125336308</v>
       </c>
       <c r="L3">
-        <v>1.065405401542126</v>
+        <v>1.028614595212765</v>
       </c>
       <c r="M3">
-        <v>1.072496975759474</v>
+        <v>1.030943163761843</v>
       </c>
       <c r="N3">
-        <v>1.021705038629623</v>
+        <v>1.010635987426893</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.050457510434784</v>
+        <v>1.008270590600584</v>
       </c>
       <c r="D4">
-        <v>1.048436088384153</v>
+        <v>1.022708228087886</v>
       </c>
       <c r="E4">
-        <v>1.063896767006803</v>
+        <v>1.0231064727898</v>
       </c>
       <c r="F4">
-        <v>1.071101303633836</v>
+        <v>1.025861729743168</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.036238550932537</v>
+        <v>1.043022644254398</v>
       </c>
       <c r="J4">
-        <v>1.054920186214632</v>
+        <v>1.027465074099565</v>
       </c>
       <c r="K4">
-        <v>1.050889005022878</v>
+        <v>1.032540097367988</v>
       </c>
       <c r="L4">
-        <v>1.066312172081463</v>
+        <v>1.032933797642498</v>
       </c>
       <c r="M4">
-        <v>1.073499625743957</v>
+        <v>1.035657733112362</v>
       </c>
       <c r="N4">
-        <v>1.02197417359593</v>
+        <v>1.011979958997272</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.050881307732991</v>
+        <v>1.010334458842055</v>
       </c>
       <c r="D5">
-        <v>1.048752770408511</v>
+        <v>1.0242517633561</v>
       </c>
       <c r="E5">
-        <v>1.064328782511696</v>
+        <v>1.025129749137324</v>
       </c>
       <c r="F5">
-        <v>1.071573386974676</v>
+        <v>1.028049838384804</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.036321788929191</v>
+        <v>1.043548676186483</v>
       </c>
       <c r="J5">
-        <v>1.055247347310665</v>
+        <v>1.029029220089109</v>
       </c>
       <c r="K5">
-        <v>1.051153824450363</v>
+        <v>1.033848553342315</v>
       </c>
       <c r="L5">
-        <v>1.066692896724109</v>
+        <v>1.034716812030999</v>
       </c>
       <c r="M5">
-        <v>1.073920712272654</v>
+        <v>1.037604696827238</v>
       </c>
       <c r="N5">
-        <v>1.022087037198297</v>
+        <v>1.012534010125962</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.05095243878829</v>
+        <v>1.010678852998807</v>
       </c>
       <c r="D6">
-        <v>1.04880591583792</v>
+        <v>1.024509341527826</v>
       </c>
       <c r="E6">
-        <v>1.064401298716475</v>
+        <v>1.025467452978699</v>
       </c>
       <c r="F6">
-        <v>1.071652633584421</v>
+        <v>1.028415079692798</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.036335734483593</v>
+        <v>1.043636253702195</v>
       </c>
       <c r="J6">
-        <v>1.055302247423145</v>
+        <v>1.029290152726828</v>
       </c>
       <c r="K6">
-        <v>1.051198253896993</v>
+        <v>1.034066772636345</v>
       </c>
       <c r="L6">
-        <v>1.066756794072681</v>
+        <v>1.035014322303323</v>
       </c>
       <c r="M6">
-        <v>1.073991389761701</v>
+        <v>1.037929607254037</v>
       </c>
       <c r="N6">
-        <v>1.022105971102989</v>
+        <v>1.012626412627136</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.050463175009385</v>
+        <v>1.008298312815691</v>
       </c>
       <c r="D7">
-        <v>1.048440321710264</v>
+        <v>1.022728960275437</v>
       </c>
       <c r="E7">
-        <v>1.063902541039658</v>
+        <v>1.023133644132873</v>
       </c>
       <c r="F7">
-        <v>1.071107612865567</v>
+        <v>1.025891112990421</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.036239665206131</v>
+        <v>1.043029723457212</v>
       </c>
       <c r="J7">
-        <v>1.05492455988504</v>
+        <v>1.027486088887349</v>
       </c>
       <c r="K7">
-        <v>1.050892545895882</v>
+        <v>1.032557680817246</v>
       </c>
       <c r="L7">
-        <v>1.066317261224738</v>
+        <v>1.032957748578535</v>
       </c>
       <c r="M7">
-        <v>1.073505253990783</v>
+        <v>1.035683883408259</v>
       </c>
       <c r="N7">
-        <v>1.021975682784956</v>
+        <v>1.011987404508631</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.048414247006311</v>
+        <v>0.9980223760916772</v>
       </c>
       <c r="D8">
-        <v>1.046908264405991</v>
+        <v>1.015046298907141</v>
       </c>
       <c r="E8">
-        <v>1.061814696321726</v>
+        <v>1.013072182347331</v>
       </c>
       <c r="F8">
-        <v>1.06882679997886</v>
+        <v>1.015013396187337</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.035833685791641</v>
+        <v>1.040382277767193</v>
       </c>
       <c r="J8">
-        <v>1.053341251264892</v>
+        <v>1.019688100957165</v>
       </c>
       <c r="K8">
-        <v>1.049609643988774</v>
+        <v>1.026026243793895</v>
       </c>
       <c r="L8">
-        <v>1.064475974364328</v>
+        <v>1.024077946815358</v>
       </c>
       <c r="M8">
-        <v>1.071469631847487</v>
+        <v>1.025993770379716</v>
       </c>
       <c r="N8">
-        <v>1.021428709698782</v>
+        <v>1.009221812370799</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.044788464451212</v>
+        <v>0.9785096796237525</v>
       </c>
       <c r="D9">
-        <v>1.044193326645336</v>
+        <v>1.000478686120743</v>
       </c>
       <c r="E9">
-        <v>1.05812325109661</v>
+        <v>0.9940209702543437</v>
       </c>
       <c r="F9">
-        <v>1.064796773426671</v>
+        <v>0.9944279810064552</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035101463986061</v>
+        <v>1.035246425869323</v>
       </c>
       <c r="J9">
-        <v>1.050533272539688</v>
+        <v>1.00484482715727</v>
       </c>
       <c r="K9">
-        <v>1.047329406364253</v>
+        <v>1.01356400174781</v>
       </c>
       <c r="L9">
-        <v>1.061215309621195</v>
+        <v>1.007211803663509</v>
       </c>
       <c r="M9">
-        <v>1.067868187924848</v>
+        <v>1.007612111890537</v>
       </c>
       <c r="N9">
-        <v>1.020455700480756</v>
+        <v>1.003946054507673</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.042360356176612</v>
+        <v>0.9643575048939573</v>
       </c>
       <c r="D10">
-        <v>1.042372703269392</v>
+        <v>0.9899390836593921</v>
       </c>
       <c r="E10">
-        <v>1.055653350187913</v>
+        <v>0.9802456943648044</v>
       </c>
       <c r="F10">
-        <v>1.062102064124562</v>
+        <v>0.9795483837827251</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.034601853154197</v>
+        <v>1.031452910543381</v>
       </c>
       <c r="J10">
-        <v>1.048648711762142</v>
+        <v>0.994060276506504</v>
       </c>
       <c r="K10">
-        <v>1.045795686381914</v>
+        <v>1.004492398536421</v>
       </c>
       <c r="L10">
-        <v>1.059030168589279</v>
+        <v>0.9949810201519464</v>
       </c>
       <c r="M10">
-        <v>1.065456923984815</v>
+        <v>0.9942969845260039</v>
       </c>
       <c r="N10">
-        <v>1.019800702391624</v>
+        <v>1.000107302862312</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.041306228285794</v>
+        <v>0.9579043915714005</v>
       </c>
       <c r="D11">
-        <v>1.041581732242625</v>
+        <v>0.9851425078963441</v>
       </c>
       <c r="E11">
-        <v>1.054581601051428</v>
+        <v>0.9739758297337962</v>
       </c>
       <c r="F11">
-        <v>1.060933172569801</v>
+        <v>0.9727763344987899</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.03438276463294</v>
+        <v>1.029708305156032</v>
       </c>
       <c r="J11">
-        <v>1.047829585567103</v>
+        <v>0.9891396669005124</v>
       </c>
       <c r="K11">
-        <v>1.045128265983046</v>
+        <v>1.000350161354921</v>
       </c>
       <c r="L11">
-        <v>1.058081159320817</v>
+        <v>0.9894057972934858</v>
       </c>
       <c r="M11">
-        <v>1.064410240769522</v>
+        <v>0.9882305824192651</v>
       </c>
       <c r="N11">
-        <v>1.019515545156723</v>
+        <v>0.9983550658132585</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.040914254294083</v>
+        <v>0.9554531093986238</v>
       </c>
       <c r="D12">
-        <v>1.041287527414982</v>
+        <v>0.9833221759925675</v>
       </c>
       <c r="E12">
-        <v>1.054183153592566</v>
+        <v>0.9715960020199004</v>
       </c>
       <c r="F12">
-        <v>1.060498671076113</v>
+        <v>0.9702058881889974</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.03430096880316</v>
+        <v>1.029043511770851</v>
       </c>
       <c r="J12">
-        <v>1.047524850653656</v>
+        <v>0.9872702051043623</v>
       </c>
       <c r="K12">
-        <v>1.044879851595461</v>
+        <v>0.9987760271869108</v>
       </c>
       <c r="L12">
-        <v>1.057728219298644</v>
+        <v>0.9872883883507452</v>
       </c>
       <c r="M12">
-        <v>1.064021055101405</v>
+        <v>0.985927057368892</v>
       </c>
       <c r="N12">
-        <v>1.019409390773295</v>
+        <v>0.9976892899641912</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.040998353427245</v>
+        <v>0.9559814725392155</v>
       </c>
       <c r="D13">
-        <v>1.041350653713437</v>
+        <v>0.9837144587217324</v>
       </c>
       <c r="E13">
-        <v>1.054268638047897</v>
+        <v>0.9721088778751295</v>
       </c>
       <c r="F13">
-        <v>1.060591887952515</v>
+        <v>0.9707598457845602</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.034318533184827</v>
+        <v>1.029186896744301</v>
       </c>
       <c r="J13">
-        <v>1.04759023897231</v>
+        <v>0.987673171202359</v>
       </c>
       <c r="K13">
-        <v>1.044933160286627</v>
+        <v>0.9991153512418611</v>
       </c>
       <c r="L13">
-        <v>1.057803946022355</v>
+        <v>0.9877447663629946</v>
       </c>
       <c r="M13">
-        <v>1.064104555081315</v>
+        <v>0.9864235314526356</v>
       </c>
       <c r="N13">
-        <v>1.019432171901295</v>
+        <v>0.9978328008769703</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.041273836312698</v>
+        <v>0.9577029103833951</v>
       </c>
       <c r="D14">
-        <v>1.041557421446714</v>
+        <v>0.9849928509067589</v>
       </c>
       <c r="E14">
-        <v>1.054548672511232</v>
+        <v>0.9737801834755029</v>
       </c>
       <c r="F14">
-        <v>1.060897263207703</v>
+        <v>0.9725650180289521</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.034376011879384</v>
+        <v>1.029653704382478</v>
       </c>
       <c r="J14">
-        <v>1.047804405828052</v>
+        <v>0.9889860135042974</v>
       </c>
       <c r="K14">
-        <v>1.045107742312454</v>
+        <v>1.000220788800563</v>
       </c>
       <c r="L14">
-        <v>1.058051994139593</v>
+        <v>0.9892317496863621</v>
       </c>
       <c r="M14">
-        <v>1.064378078808039</v>
+        <v>0.9880412279253608</v>
       </c>
       <c r="N14">
-        <v>1.019506775199829</v>
+        <v>0.9983003456919627</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.04144351386638</v>
+        <v>0.9587561705532428</v>
       </c>
       <c r="D15">
-        <v>1.041684764233813</v>
+        <v>0.9857752664159964</v>
       </c>
       <c r="E15">
-        <v>1.054721163976309</v>
+        <v>0.9748030167845734</v>
       </c>
       <c r="F15">
-        <v>1.061085371774817</v>
+        <v>0.9736697740513219</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.034411371110143</v>
+        <v>1.029939050804904</v>
       </c>
       <c r="J15">
-        <v>1.047936297875232</v>
+        <v>0.9897892378298735</v>
       </c>
       <c r="K15">
-        <v>1.04521524095214</v>
+        <v>1.000897069310325</v>
       </c>
       <c r="L15">
-        <v>1.05820476671062</v>
+        <v>0.990141615411346</v>
       </c>
       <c r="M15">
-        <v>1.064546552323114</v>
+        <v>0.9890311303522283</v>
       </c>
       <c r="N15">
-        <v>1.019552709614972</v>
+        <v>0.9985863935627664</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.042430256388605</v>
+        <v>0.9647784796583181</v>
       </c>
       <c r="D16">
-        <v>1.0424251413403</v>
+        <v>0.9902522085617053</v>
       </c>
       <c r="E16">
-        <v>1.055724429914935</v>
+        <v>0.9806549605234479</v>
       </c>
       <c r="F16">
-        <v>1.062179595006267</v>
+        <v>0.9799904334471764</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.034616335074612</v>
+        <v>1.031566426955728</v>
       </c>
       <c r="J16">
-        <v>1.048703008379214</v>
+        <v>0.9943812253245107</v>
       </c>
       <c r="K16">
-        <v>1.045839910507996</v>
+        <v>1.004762518742149</v>
       </c>
       <c r="L16">
-        <v>1.059093090695952</v>
+        <v>0.9953447720799311</v>
       </c>
       <c r="M16">
-        <v>1.065526333329459</v>
+        <v>0.9946928441063709</v>
       </c>
       <c r="N16">
-        <v>1.019819594653835</v>
+        <v>1.000221582274565</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.043048471516821</v>
+        <v>0.9684654718041089</v>
       </c>
       <c r="D17">
-        <v>1.042888850848439</v>
+        <v>0.9929957017933684</v>
       </c>
       <c r="E17">
-        <v>1.056353137296796</v>
+        <v>0.9842407001050757</v>
       </c>
       <c r="F17">
-        <v>1.062865410470792</v>
+        <v>0.9838634450428709</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.034744164277509</v>
+        <v>1.032558977511222</v>
       </c>
       <c r="J17">
-        <v>1.049183109344621</v>
+        <v>0.9971918382231847</v>
       </c>
       <c r="K17">
-        <v>1.046230857880278</v>
+        <v>1.007127666511372</v>
       </c>
       <c r="L17">
-        <v>1.059649547971674</v>
+        <v>0.9985308068177522</v>
       </c>
       <c r="M17">
-        <v>1.066140222353186</v>
+        <v>0.9981604484851914</v>
       </c>
       <c r="N17">
-        <v>1.019986590436712</v>
+        <v>1.001222271657524</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.043408802303533</v>
+        <v>0.9705850724690204</v>
       </c>
       <c r="D18">
-        <v>1.043159071633731</v>
+        <v>0.9945737440567562</v>
       </c>
       <c r="E18">
-        <v>1.056719633860997</v>
+        <v>0.9863031477582563</v>
       </c>
       <c r="F18">
-        <v>1.063265236700011</v>
+        <v>0.9860911734828173</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.034818459389896</v>
+        <v>1.033128183621794</v>
       </c>
       <c r="J18">
-        <v>1.049462845751445</v>
+        <v>0.9988073236815009</v>
       </c>
       <c r="K18">
-        <v>1.046458572058975</v>
+        <v>1.008486803751964</v>
       </c>
       <c r="L18">
-        <v>1.059973847880102</v>
+        <v>1.000362570639103</v>
       </c>
       <c r="M18">
-        <v>1.066498044338205</v>
+        <v>1.000154389543276</v>
       </c>
       <c r="N18">
-        <v>1.020083847997485</v>
+        <v>1.001797374425421</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.043531621438328</v>
+        <v>0.9713027025950771</v>
       </c>
       <c r="D19">
-        <v>1.043251167243857</v>
+        <v>0.9951081547352647</v>
       </c>
       <c r="E19">
-        <v>1.056844563125483</v>
+        <v>0.9870016030820961</v>
       </c>
       <c r="F19">
-        <v>1.063401533861251</v>
+        <v>0.9868456118132175</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.034843747156598</v>
+        <v>1.033320657939774</v>
       </c>
       <c r="J19">
-        <v>1.0495581783121</v>
+        <v>0.9993542219602398</v>
       </c>
       <c r="K19">
-        <v>1.046536162859714</v>
+        <v>1.008946865417428</v>
       </c>
       <c r="L19">
-        <v>1.060084379920368</v>
+        <v>1.000982771258153</v>
       </c>
       <c r="M19">
-        <v>1.06662001049219</v>
+        <v>1.000829551028107</v>
       </c>
       <c r="N19">
-        <v>1.02011698525944</v>
+        <v>1.001992052730685</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.042982170241552</v>
+        <v>0.968073131493475</v>
       </c>
       <c r="D20">
-        <v>1.042839125446415</v>
+        <v>0.9927036711010278</v>
       </c>
       <c r="E20">
-        <v>1.056285705559042</v>
+        <v>0.983859023592507</v>
       </c>
       <c r="F20">
-        <v>1.062791849569519</v>
+        <v>0.9834511860122181</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.034730476896454</v>
+        <v>1.032453502595659</v>
       </c>
       <c r="J20">
-        <v>1.049131629983755</v>
+        <v>0.9968927851381918</v>
       </c>
       <c r="K20">
-        <v>1.046188945957436</v>
+        <v>1.006876042550618</v>
       </c>
       <c r="L20">
-        <v>1.059589873605428</v>
+        <v>0.9981917572437514</v>
       </c>
       <c r="M20">
-        <v>1.066074383721267</v>
+        <v>0.9977914047829474</v>
       </c>
       <c r="N20">
-        <v>1.019968688726767</v>
+        <v>1.001115804252027</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.041192725270659</v>
+        <v>0.9571975372478276</v>
       </c>
       <c r="D21">
-        <v>1.04149654469125</v>
+        <v>0.9846174962274047</v>
       </c>
       <c r="E21">
-        <v>1.054466219155976</v>
+        <v>0.9732894761682179</v>
       </c>
       <c r="F21">
-        <v>1.060807346830646</v>
+        <v>0.9720350073358847</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.034359097359889</v>
+        <v>1.029516716827344</v>
       </c>
       <c r="J21">
-        <v>1.047741352214456</v>
+        <v>0.9886006017422445</v>
       </c>
       <c r="K21">
-        <v>1.045056346251067</v>
+        <v>0.9998962750882109</v>
       </c>
       <c r="L21">
-        <v>1.057978962266346</v>
+        <v>0.9887951947726282</v>
       </c>
       <c r="M21">
-        <v>1.064297544050517</v>
+        <v>0.9875662862577708</v>
       </c>
       <c r="N21">
-        <v>1.019484812880542</v>
+        <v>0.9981630894365626</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.04006517120186</v>
+        <v>0.9500420274643813</v>
       </c>
       <c r="D22">
-        <v>1.040650075410497</v>
+        <v>0.9793073945923545</v>
       </c>
       <c r="E22">
-        <v>1.053320192761652</v>
+        <v>0.9663462284203636</v>
       </c>
       <c r="F22">
-        <v>1.059557735196877</v>
+        <v>0.9645355160086148</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.034123184547982</v>
+        <v>1.02757233055762</v>
       </c>
       <c r="J22">
-        <v>1.046864476636397</v>
+        <v>0.983143053627511</v>
       </c>
       <c r="K22">
-        <v>1.044341311847021</v>
+        <v>0.995300231606892</v>
       </c>
       <c r="L22">
-        <v>1.056963592009574</v>
+        <v>0.9826152109306139</v>
       </c>
       <c r="M22">
-        <v>1.063178048913907</v>
+        <v>0.9808438617323394</v>
       </c>
       <c r="N22">
-        <v>1.019179223838065</v>
+        <v>0.9962194382368345</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.040663146118738</v>
+        <v>0.953867464451393</v>
       </c>
       <c r="D23">
-        <v>1.041099028852247</v>
+        <v>0.9821451898214568</v>
       </c>
       <c r="E23">
-        <v>1.053927920633271</v>
+        <v>0.9700571171579981</v>
       </c>
       <c r="F23">
-        <v>1.060220360139152</v>
+        <v>0.9685437302251169</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.034248475969442</v>
+        <v>1.02861291206341</v>
       </c>
       <c r="J23">
-        <v>1.04732958906</v>
+        <v>0.9860608488191924</v>
       </c>
       <c r="K23">
-        <v>1.044720644804726</v>
+        <v>0.9977576183556882</v>
       </c>
       <c r="L23">
-        <v>1.05750210207275</v>
+        <v>0.98591884384807</v>
       </c>
       <c r="M23">
-        <v>1.06377173886564</v>
+        <v>0.9844372481900221</v>
       </c>
       <c r="N23">
-        <v>1.019341352055138</v>
+        <v>0.9972585902833596</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.043012129748623</v>
+        <v>0.9682505084628893</v>
       </c>
       <c r="D24">
-        <v>1.042861594997475</v>
+        <v>0.9928356955052771</v>
       </c>
       <c r="E24">
-        <v>1.056316175731893</v>
+        <v>0.9840315761885777</v>
       </c>
       <c r="F24">
-        <v>1.062825089187306</v>
+        <v>0.9836375645428478</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.034736662455216</v>
+        <v>1.032501192137306</v>
       </c>
       <c r="J24">
-        <v>1.049154892213031</v>
+        <v>0.9970279879066987</v>
       </c>
       <c r="K24">
-        <v>1.046207885136492</v>
+        <v>1.006989803424167</v>
       </c>
       <c r="L24">
-        <v>1.05961683872406</v>
+        <v>0.9983450410051907</v>
       </c>
       <c r="M24">
-        <v>1.066104134134805</v>
+        <v>0.9979582479276291</v>
       </c>
       <c r="N24">
-        <v>1.019976778197071</v>
+        <v>1.001163938709364</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.045727694598597</v>
+        <v>0.9837395778643451</v>
       </c>
       <c r="D25">
-        <v>1.044897052816554</v>
+        <v>1.004379679887254</v>
       </c>
       <c r="E25">
-        <v>1.059079108929531</v>
+        <v>0.9991204354614361</v>
       </c>
       <c r="F25">
-        <v>1.065839997054736</v>
+        <v>0.9999370467806089</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.035292770604128</v>
+        <v>1.036634998898794</v>
       </c>
       <c r="J25">
-        <v>1.051261383186651</v>
+        <v>1.008826841096054</v>
       </c>
       <c r="K25">
-        <v>1.047921264442376</v>
+        <v>1.016910385303344</v>
       </c>
       <c r="L25">
-        <v>1.062060231938421</v>
+        <v>1.011732420898397</v>
       </c>
       <c r="M25">
-        <v>1.068801018312616</v>
+        <v>1.01253634009501</v>
       </c>
       <c r="N25">
-        <v>1.020708349876284</v>
+        <v>1.005362501616508</v>
       </c>
     </row>
   </sheetData>
